--- a/excel_files/2.c.1.1b.xlsx
+++ b/excel_files/2.c.1.1b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\ПоказателиЦУР для Платформы\Национальные показатели ЦУР\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\Показатели ЦУР для Платформы\Национальные показатели ЦУР\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -758,9 +758,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12"/>
   <cols>
@@ -769,7 +771,7 @@
     <col min="16" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="45" customHeight="1">
+    <row r="1" spans="1:17" ht="45" customHeight="1">
       <c r="A1" s="19" t="s">
         <v>37</v>
       </c>
@@ -783,7 +785,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:16" ht="18" customHeight="1">
+    <row r="2" spans="1:17" ht="18" customHeight="1">
       <c r="A2" s="24" t="s">
         <v>35</v>
       </c>
@@ -797,14 +799,14 @@
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1" thickBot="1">
+    <row r="3" spans="1:17" ht="15" customHeight="1" thickBot="1">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="1"/>
       <c r="E3" s="3"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:16" ht="18" customHeight="1" thickBot="1">
+    <row r="4" spans="1:17" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="11" t="s">
         <v>10</v>
       </c>
@@ -853,8 +855,11 @@
       <c r="P4" s="13">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="12.95" customHeight="1">
+      <c r="Q4" s="13">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="12.95" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>32</v>
       </c>
@@ -903,8 +908,11 @@
       <c r="P5" s="23">
         <v>105.74483114760656</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="12.95" customHeight="1">
+      <c r="Q5" s="23">
+        <v>109.7221295941265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="12.95" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -953,8 +961,11 @@
       <c r="P6" s="8">
         <v>110.41258664483382</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="12.95" customHeight="1">
+      <c r="Q6" s="8">
+        <v>108.44905375816947</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="12.95" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -1003,8 +1014,11 @@
       <c r="P7" s="8">
         <v>106.89746323847076</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="12.95" customHeight="1">
+      <c r="Q7" s="8">
+        <v>109.90982951756889</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="12.95" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -1053,8 +1067,11 @@
       <c r="P8" s="8">
         <v>106.65979492561648</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="12.95" customHeight="1">
+      <c r="Q8" s="8">
+        <v>108.40606487500015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="12.95" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -1103,8 +1120,11 @@
       <c r="P9" s="8">
         <v>106.01692603231838</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="12.95" customHeight="1">
+      <c r="Q9" s="8">
+        <v>109.40161876466024</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="12.95" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
@@ -1153,8 +1173,11 @@
       <c r="P10" s="8">
         <v>107.31239667805895</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="12.95" customHeight="1">
+      <c r="Q10" s="8">
+        <v>107.71155656686271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="12.95" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -1203,8 +1226,11 @@
       <c r="P11" s="8">
         <v>106.17205692263508</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="12.95" customHeight="1">
+      <c r="Q11" s="8">
+        <v>111.78921596090774</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="12.95" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
@@ -1253,8 +1279,11 @@
       <c r="P12" s="8">
         <v>105.85309967525372</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="12.95" customHeight="1">
+      <c r="Q12" s="8">
+        <v>111.39254046803097</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="12.95" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
@@ -1303,8 +1332,11 @@
       <c r="P13" s="9">
         <v>105.61571039117108</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="12.95" customHeight="1" thickBot="1">
+      <c r="Q13" s="9">
+        <v>110.44919152842827</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="12.95" customHeight="1" thickBot="1">
       <c r="A14" s="17" t="s">
         <v>29</v>
       </c>
@@ -1353,9 +1385,12 @@
       <c r="P14" s="10">
         <v>102.47048806260071</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="12.95" customHeight="1"/>
-    <row r="16" spans="1:16">
+      <c r="Q14" s="10">
+        <v>106.89826464456031</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="12.95" customHeight="1"/>
+    <row r="16" spans="1:17">
       <c r="B16" s="21"/>
     </row>
     <row r="17" spans="2:2">

--- a/excel_files/2.c.1.1b.xlsx
+++ b/excel_files/2.c.1.1b.xlsx
@@ -758,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12"/>
@@ -771,7 +771,7 @@
     <col min="16" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="45" customHeight="1">
+    <row r="1" spans="1:18" ht="45" customHeight="1">
       <c r="A1" s="19" t="s">
         <v>37</v>
       </c>
@@ -785,7 +785,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:17" ht="18" customHeight="1">
+    <row r="2" spans="1:18" ht="18" customHeight="1">
       <c r="A2" s="24" t="s">
         <v>35</v>
       </c>
@@ -799,14 +799,14 @@
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" thickBot="1">
+    <row r="3" spans="1:18" ht="15" customHeight="1" thickBot="1">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="1"/>
       <c r="E3" s="3"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:17" ht="18" customHeight="1" thickBot="1">
+    <row r="4" spans="1:18" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="11" t="s">
         <v>10</v>
       </c>
@@ -858,8 +858,11 @@
       <c r="Q4" s="13">
         <v>2020</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="12.95" customHeight="1">
+      <c r="R4" s="13">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="12.95" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>32</v>
       </c>
@@ -911,8 +914,11 @@
       <c r="Q5" s="23">
         <v>109.7221295941265</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="12.95" customHeight="1">
+      <c r="R5" s="23">
+        <v>111.17903216128188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="12.95" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -964,8 +970,11 @@
       <c r="Q6" s="8">
         <v>108.44905375816947</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" ht="12.95" customHeight="1">
+      <c r="R6" s="8">
+        <v>113.69236134930286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="12.95" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -1017,8 +1026,11 @@
       <c r="Q7" s="8">
         <v>109.90982951756889</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="12.95" customHeight="1">
+      <c r="R7" s="8">
+        <v>114.88854111210361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="12.95" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -1070,8 +1082,11 @@
       <c r="Q8" s="8">
         <v>108.40606487500015</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" ht="12.95" customHeight="1">
+      <c r="R8" s="8">
+        <v>110.91060220352473</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="12.95" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -1123,8 +1138,11 @@
       <c r="Q9" s="8">
         <v>109.40161876466024</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="12.95" customHeight="1">
+      <c r="R9" s="8">
+        <v>113.02233875668462</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="12.95" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
@@ -1176,8 +1194,11 @@
       <c r="Q10" s="8">
         <v>107.71155656686271</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" ht="12.95" customHeight="1">
+      <c r="R10" s="8">
+        <v>110.66816227588356</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="12.95" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -1229,8 +1250,11 @@
       <c r="Q11" s="8">
         <v>111.78921596090774</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" ht="12.95" customHeight="1">
+      <c r="R11" s="8">
+        <v>111.40708764208969</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="12.95" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
@@ -1282,8 +1306,11 @@
       <c r="Q12" s="8">
         <v>111.39254046803097</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" ht="12.95" customHeight="1">
+      <c r="R12" s="8">
+        <v>109.49389157333138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="12.95" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
@@ -1335,8 +1362,11 @@
       <c r="Q13" s="9">
         <v>110.44919152842827</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" ht="12.95" customHeight="1" thickBot="1">
+      <c r="R13" s="9">
+        <v>110.97185980126036</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="12.95" customHeight="1" thickBot="1">
       <c r="A14" s="17" t="s">
         <v>29</v>
       </c>
@@ -1388,9 +1418,12 @@
       <c r="Q14" s="10">
         <v>106.89826464456031</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" ht="12.95" customHeight="1"/>
-    <row r="16" spans="1:17">
+      <c r="R14" s="10">
+        <v>110.008558587758</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="12.95" customHeight="1"/>
+    <row r="16" spans="1:18">
       <c r="B16" s="21"/>
     </row>
     <row r="17" spans="2:2">

--- a/excel_files/2.c.1.1b.xlsx
+++ b/excel_files/2.c.1.1b.xlsx
@@ -758,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R24"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12"/>
@@ -771,7 +771,7 @@
     <col min="16" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="45" customHeight="1">
+    <row r="1" spans="1:19" ht="45" customHeight="1">
       <c r="A1" s="19" t="s">
         <v>37</v>
       </c>
@@ -785,7 +785,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:18" ht="18" customHeight="1">
+    <row r="2" spans="1:19" ht="18" customHeight="1">
       <c r="A2" s="24" t="s">
         <v>35</v>
       </c>
@@ -799,14 +799,14 @@
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:18" ht="15" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="1"/>
       <c r="E3" s="3"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:18" ht="18" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="11" t="s">
         <v>10</v>
       </c>
@@ -861,8 +861,11 @@
       <c r="R4" s="13">
         <v>2021</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="12.95" customHeight="1">
+      <c r="S4" s="13">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="12.95" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>32</v>
       </c>
@@ -912,13 +915,16 @@
         <v>105.74483114760656</v>
       </c>
       <c r="Q5" s="23">
-        <v>109.7221295941265</v>
+        <v>117.60684979252385</v>
       </c>
       <c r="R5" s="23">
-        <v>111.17903216128188</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="12.95" customHeight="1">
+        <v>113.34848864817617</v>
+      </c>
+      <c r="S5" s="4">
+        <v>115.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="12.95" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -968,13 +974,16 @@
         <v>110.41258664483382</v>
       </c>
       <c r="Q6" s="8">
-        <v>108.44905375816947</v>
+        <v>114.77319768114526</v>
       </c>
       <c r="R6" s="8">
-        <v>113.69236134930286</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="12.95" customHeight="1">
+        <v>115.06069350712495</v>
+      </c>
+      <c r="S6" s="4">
+        <v>115.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="12.95" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -1024,13 +1033,16 @@
         <v>106.89746323847076</v>
       </c>
       <c r="Q7" s="8">
-        <v>109.90982951756889</v>
+        <v>116.40044011407315</v>
       </c>
       <c r="R7" s="8">
-        <v>114.88854111210361</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="12.95" customHeight="1">
+        <v>114.29658549692938</v>
+      </c>
+      <c r="S7" s="4">
+        <v>115.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="12.95" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -1080,13 +1092,16 @@
         <v>106.65979492561648</v>
       </c>
       <c r="Q8" s="8">
-        <v>108.40606487500015</v>
+        <v>117.53828537152096</v>
       </c>
       <c r="R8" s="8">
-        <v>110.91060220352473</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="12.95" customHeight="1">
+        <v>113.75761785228545</v>
+      </c>
+      <c r="S8" s="4">
+        <v>111.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="12.95" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -1136,13 +1151,16 @@
         <v>106.01692603231838</v>
       </c>
       <c r="Q9" s="8">
-        <v>109.40161876466024</v>
+        <v>117.42206669681742</v>
       </c>
       <c r="R9" s="8">
-        <v>113.02233875668462</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="12.95" customHeight="1">
+        <v>113.98264089946031</v>
+      </c>
+      <c r="S9" s="4">
+        <v>116.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="12.95" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
@@ -1192,13 +1210,16 @@
         <v>107.31239667805895</v>
       </c>
       <c r="Q10" s="8">
-        <v>107.71155656686271</v>
+        <v>113.98326995089161</v>
       </c>
       <c r="R10" s="8">
-        <v>110.66816227588356</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="12.95" customHeight="1">
+        <v>113.92720567782911</v>
+      </c>
+      <c r="S10" s="4">
+        <v>108.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="12.95" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -1248,13 +1269,16 @@
         <v>106.17205692263508</v>
       </c>
       <c r="Q11" s="8">
-        <v>111.78921596090774</v>
+        <v>123.488978736909</v>
       </c>
       <c r="R11" s="8">
-        <v>111.40708764208969</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="12.95" customHeight="1">
+        <v>114.17226706705155</v>
+      </c>
+      <c r="S11" s="4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="12.95" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
@@ -1304,13 +1328,16 @@
         <v>105.85309967525372</v>
       </c>
       <c r="Q12" s="8">
-        <v>111.39254046803097</v>
+        <v>118.12340252754679</v>
       </c>
       <c r="R12" s="8">
-        <v>109.49389157333138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="12.95" customHeight="1">
+        <v>114.45153946490467</v>
+      </c>
+      <c r="S12" s="4">
+        <v>115.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="12.95" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
@@ -1360,13 +1387,16 @@
         <v>105.61571039117108</v>
       </c>
       <c r="Q13" s="9">
-        <v>110.44919152842827</v>
+        <v>118.87059844457349</v>
       </c>
       <c r="R13" s="9">
-        <v>110.97185980126036</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="12.95" customHeight="1" thickBot="1">
+        <v>112.69493421065988</v>
+      </c>
+      <c r="S13" s="4">
+        <v>117.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="12.95" customHeight="1" thickBot="1">
       <c r="A14" s="17" t="s">
         <v>29</v>
       </c>
@@ -1416,14 +1446,17 @@
         <v>102.47048806260071</v>
       </c>
       <c r="Q14" s="10">
-        <v>106.89826464456031</v>
+        <v>114.06377070452145</v>
       </c>
       <c r="R14" s="10">
-        <v>110.008558587758</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="12.95" customHeight="1"/>
-    <row r="16" spans="1:18">
+        <v>113.95067699644588</v>
+      </c>
+      <c r="S14" s="10">
+        <v>112.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="12.95" customHeight="1"/>
+    <row r="16" spans="1:19">
       <c r="B16" s="21"/>
     </row>
     <row r="17" spans="2:2">

--- a/excel_files/2.c.1.1b.xlsx
+++ b/excel_files/2.c.1.1b.xlsx
@@ -161,7 +161,7 @@
     <numFmt numFmtId="166" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _р_._-;\-* #,##0.00\ _р_._-;_-* &quot;-&quot;??\ _р_._-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -288,6 +288,11 @@
       <sz val="9"/>
       <name val="Times New Roman Cyr"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Times New Roman Cyr"/>
     </font>
   </fonts>
   <fills count="2">
@@ -357,7 +362,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -430,6 +435,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -761,7 +769,7 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12"/>
@@ -920,7 +928,7 @@
       <c r="R5" s="23">
         <v>113.34848864817617</v>
       </c>
-      <c r="S5" s="4">
+      <c r="S5" s="25">
         <v>115.8</v>
       </c>
     </row>

--- a/excel_files/2.c.1.1b.xlsx
+++ b/excel_files/2.c.1.1b.xlsx
@@ -362,7 +362,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -438,6 +438,15 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -766,20 +775,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S24"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="3" width="37.5703125" style="4" customWidth="1"/>
-    <col min="4" max="15" width="9.28515625" style="4" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="4"/>
+    <col min="4" max="20" width="8.42578125" style="4" customWidth="1"/>
+    <col min="21" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="45" customHeight="1">
+    <row r="1" spans="1:20" ht="45" customHeight="1">
       <c r="A1" s="19" t="s">
         <v>37</v>
       </c>
@@ -793,7 +800,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:19" ht="18" customHeight="1">
+    <row r="2" spans="1:20" ht="18" customHeight="1">
       <c r="A2" s="24" t="s">
         <v>35</v>
       </c>
@@ -807,14 +814,14 @@
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1">
+    <row r="3" spans="1:20" ht="15" customHeight="1" thickBot="1">
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="1"/>
       <c r="E3" s="3"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:19" ht="18" customHeight="1" thickBot="1">
+    <row r="4" spans="1:20" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="11" t="s">
         <v>10</v>
       </c>
@@ -872,8 +879,11 @@
       <c r="S4" s="13">
         <v>2022</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" ht="12.95" customHeight="1">
+      <c r="T4" s="13">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="14.25" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>32</v>
       </c>
@@ -931,8 +941,11 @@
       <c r="S5" s="25">
         <v>115.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" ht="12.95" customHeight="1">
+      <c r="T5" s="26">
+        <v>103.3752971770694</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="14.25" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -990,8 +1003,11 @@
       <c r="S6" s="4">
         <v>115.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" ht="12.95" customHeight="1">
+      <c r="T6" s="27">
+        <v>104.28289267885566</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="14.25" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -1049,8 +1065,11 @@
       <c r="S7" s="4">
         <v>115.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" ht="12.95" customHeight="1">
+      <c r="T7" s="27">
+        <v>105.54952929965596</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="14.25" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -1108,8 +1127,11 @@
       <c r="S8" s="4">
         <v>111.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" ht="12.95" customHeight="1">
+      <c r="T8" s="27">
+        <v>103.51673393645765</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="14.25" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -1167,8 +1189,11 @@
       <c r="S9" s="4">
         <v>116.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" ht="12.95" customHeight="1">
+      <c r="T9" s="27">
+        <v>106.47711005273266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="14.25" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
@@ -1226,8 +1251,11 @@
       <c r="S10" s="4">
         <v>108.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" ht="12.95" customHeight="1">
+      <c r="T10" s="27">
+        <v>107.06485907396235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="14.25" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -1285,8 +1313,11 @@
       <c r="S11" s="4">
         <v>111</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" ht="12.95" customHeight="1">
+      <c r="T11" s="27">
+        <v>109.45786616400459</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="14.25" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
@@ -1344,8 +1375,11 @@
       <c r="S12" s="4">
         <v>115.8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" ht="12.95" customHeight="1">
+      <c r="T12" s="27">
+        <v>101.11876601355125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="14.25" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
@@ -1403,8 +1437,11 @@
       <c r="S13" s="4">
         <v>117.9</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" ht="12.95" customHeight="1" thickBot="1">
+      <c r="T13" s="27">
+        <v>102.74015470892634</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="A14" s="17" t="s">
         <v>29</v>
       </c>
@@ -1462,9 +1499,12 @@
       <c r="S14" s="10">
         <v>112.4</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" ht="12.95" customHeight="1"/>
-    <row r="16" spans="1:19">
+      <c r="T14" s="28">
+        <v>103.21772010523679</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="12.95" customHeight="1"/>
+    <row r="16" spans="1:20">
       <c r="B16" s="21"/>
     </row>
     <row r="17" spans="2:2">
